--- a/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb170/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD69C6A9-A0B9-6B4D-83A7-7D26F6A8E2E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4200BA5D-137A-994D-95C4-23BEAC3839E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21920" yWindow="460" windowWidth="24580" windowHeight="25120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,13 +663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A121" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1"/>
     <col min="4" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -3139,13 +3139,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D150" s="2">
         <v>709345159</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4200BA5D-137A-994D-95C4-23BEAC3839E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06A01C-BA68-544A-B64F-5278494896A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21920" yWindow="460" windowWidth="24580" windowHeight="25120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="91">
   <si>
     <t>Terminal Island</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Market squid</t>
-  </si>
-  <si>
-    <t>lack mackerel</t>
   </si>
   <si>
     <t>Pacific bonito</t>
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A121" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,19 +675,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -698,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -715,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -732,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -749,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -766,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -783,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -800,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -817,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2">
         <v>1781631</v>
@@ -834,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -851,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>63</v>
@@ -868,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -902,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -919,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
         <v>560220618</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4">
         <f>SUM(D2:D14)-D15</f>
@@ -949,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2">
         <v>39912392</v>
@@ -966,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2">
         <v>58296293</v>
@@ -983,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2">
         <v>15649322</v>
@@ -1000,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1017,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2">
         <v>149958</v>
@@ -1034,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -1051,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
@@ -1065,7 +1062,7 @@
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4">
         <f>SUM(D17:D22)-D23</f>
@@ -1081,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -1095,13 +1092,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2">
         <v>10052330</v>
@@ -1112,10 +1109,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1129,10 +1126,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>63</v>
@@ -1146,10 +1143,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1163,13 +1160,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2">
         <v>1550977</v>
@@ -1180,10 +1177,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>27</v>
@@ -1197,10 +1194,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>34</v>
@@ -1214,10 +1211,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
@@ -1231,10 +1228,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>35</v>
@@ -1248,10 +1245,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
@@ -1265,10 +1262,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>29</v>
@@ -1282,10 +1279,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1299,10 +1296,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>36</v>
@@ -1316,10 +1313,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>37</v>
@@ -1333,13 +1330,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2">
         <v>135234</v>
@@ -1350,13 +1347,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2">
         <v>256138</v>
@@ -1367,10 +1364,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>38</v>
@@ -1384,10 +1381,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>20</v>
@@ -1401,10 +1398,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
@@ -1418,13 +1415,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2">
         <v>61174</v>
@@ -1435,10 +1432,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
@@ -1452,10 +1449,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>40</v>
@@ -1469,10 +1466,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
@@ -1486,13 +1483,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="2">
         <v>25592</v>
@@ -1503,13 +1500,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="2">
         <v>94495</v>
@@ -1520,10 +1517,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>41</v>
@@ -1537,10 +1534,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>42</v>
@@ -1554,10 +1551,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>43</v>
@@ -1571,10 +1568,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>44</v>
@@ -1588,10 +1585,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>51</v>
@@ -1605,10 +1602,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>45</v>
@@ -1622,10 +1619,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>46</v>
@@ -1639,13 +1636,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2">
         <v>18047</v>
@@ -1656,10 +1653,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>9</v>
@@ -1673,10 +1670,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>10</v>
@@ -1690,10 +1687,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -1707,10 +1704,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>47</v>
@@ -1724,10 +1721,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
@@ -1741,13 +1738,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" s="2">
         <v>9980</v>
@@ -1758,10 +1755,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>25</v>
@@ -1775,10 +1772,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>48</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" s="4">
         <f>SUM(D26:D65)-D66</f>
@@ -1805,10 +1802,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
@@ -1822,10 +1819,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>49</v>
@@ -1839,10 +1836,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>13</v>
@@ -1856,15 +1853,15 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>50</v>
@@ -1878,10 +1875,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>27</v>
@@ -1895,10 +1892,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>54</v>
@@ -1912,10 +1909,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>40</v>
@@ -1929,10 +1926,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>63</v>
@@ -1946,10 +1943,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>38</v>
@@ -1963,10 +1960,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>52</v>
@@ -1980,10 +1977,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>35</v>
@@ -1997,10 +1994,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
@@ -2014,10 +2011,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>51</v>
@@ -2031,10 +2028,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>25</v>
@@ -2048,10 +2045,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>13</v>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="4">
         <f>SUM(D72:D82)-D83</f>
@@ -2078,10 +2075,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>20</v>
@@ -2095,10 +2092,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>29</v>
@@ -2112,10 +2109,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>32</v>
@@ -2129,10 +2126,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>52</v>
@@ -2146,10 +2143,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>53</v>
@@ -2163,10 +2160,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>38</v>
@@ -2180,10 +2177,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
@@ -2197,10 +2194,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>54</v>
@@ -2214,10 +2211,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>25</v>
@@ -2231,10 +2228,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>13</v>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C95" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="4">
         <f>SUM(D85:D93)-D94</f>
@@ -2264,7 +2261,7 @@
         <v>15</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>35</v>
@@ -2281,7 +2278,7 @@
         <v>15</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>7</v>
@@ -2298,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
@@ -2315,10 +2312,10 @@
         <v>15</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D99" s="2">
         <v>34820</v>
@@ -2332,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>52</v>
@@ -2349,7 +2346,7 @@
         <v>15</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>53</v>
@@ -2366,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>33</v>
@@ -2383,7 +2380,7 @@
         <v>15</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>13</v>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C104" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D104" s="4">
         <f>SUM(D96:D102)-D103</f>
@@ -2413,7 +2410,7 @@
         <v>17</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>7</v>
@@ -2430,7 +2427,7 @@
         <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
@@ -2447,7 +2444,7 @@
         <v>17</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -2464,7 +2461,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>55</v>
@@ -2481,7 +2478,7 @@
         <v>17</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>56</v>
@@ -2498,7 +2495,7 @@
         <v>17</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>57</v>
@@ -2515,7 +2512,7 @@
         <v>17</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>33</v>
@@ -2532,7 +2529,7 @@
         <v>17</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>58</v>
@@ -2546,7 +2543,7 @@
     </row>
     <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C113" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D113" s="4">
         <f>SUM(D105:D111)-D112</f>
@@ -2562,7 +2559,7 @@
         <v>18</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
@@ -2579,7 +2576,7 @@
         <v>18</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>16</v>
@@ -2596,7 +2593,7 @@
         <v>18</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>59</v>
@@ -2613,7 +2610,7 @@
         <v>18</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>38</v>
@@ -2630,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>60</v>
@@ -2647,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>36</v>
@@ -2664,7 +2661,7 @@
         <v>18</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>25</v>
@@ -2681,7 +2678,7 @@
         <v>18</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>58</v>
@@ -2695,7 +2692,7 @@
     </row>
     <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C122" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D122" s="4">
         <f>SUM(D114:D120)-D121</f>
@@ -2711,7 +2708,7 @@
         <v>19</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>7</v>
@@ -2728,7 +2725,7 @@
         <v>19</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
@@ -2745,7 +2742,7 @@
         <v>19</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>20</v>
@@ -2762,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>25</v>
@@ -2779,7 +2776,7 @@
         <v>19</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>13</v>
@@ -2793,7 +2790,7 @@
     </row>
     <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C128" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D128" s="4">
         <f>SUM(D123:D126)-D127</f>
@@ -2809,7 +2806,7 @@
         <v>21</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>61</v>
@@ -2826,7 +2823,7 @@
         <v>21</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>16</v>
@@ -2843,7 +2840,7 @@
         <v>21</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>33</v>
@@ -2860,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>13</v>
@@ -2874,7 +2871,7 @@
     </row>
     <row r="133" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C133" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D133" s="4">
         <f>SUM(D129:D131)-D132</f>
@@ -2890,7 +2887,7 @@
         <v>22</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>32</v>
@@ -2907,7 +2904,7 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>23</v>
@@ -2924,10 +2921,10 @@
         <v>22</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D136" s="2">
         <v>5732</v>
@@ -2941,7 +2938,7 @@
         <v>22</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>7</v>
@@ -2958,7 +2955,7 @@
         <v>22</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>25</v>
@@ -2975,7 +2972,7 @@
         <v>22</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>58</v>
@@ -2989,7 +2986,7 @@
     </row>
     <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C140" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D140" s="4">
         <f>SUM(D134:D138)-D139</f>
@@ -3005,7 +3002,7 @@
         <v>24</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>35</v>
@@ -3022,7 +3019,7 @@
         <v>24</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>16</v>
@@ -3039,7 +3036,7 @@
         <v>24</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>7</v>
@@ -3056,7 +3053,7 @@
         <v>24</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>25</v>
@@ -3073,10 +3070,10 @@
         <v>24</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D145" s="2">
         <v>51753</v>
@@ -3087,7 +3084,7 @@
     </row>
     <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C146" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D146" s="4">
         <f>SUM(D141:D144)-D145</f>
@@ -3103,7 +3100,7 @@
         <v>26</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>25</v>
@@ -3120,7 +3117,7 @@
         <v>26</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>62</v>
@@ -3134,15 +3131,15 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C149" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>62</v>
